--- a/results/190404/fcfs/results/final view/fcfs.xlsx
+++ b/results/190404/fcfs/results/final view/fcfs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RAWSim-O\results\190404\fcfs\results\final view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3858E6-6565-4ACC-9242-C26944ADACCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEA957-4E28-4A4D-AD3E-58D3B28AEB97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="15" windowWidth="15375" windowHeight="5985" activeTab="4" xr2:uid="{0F71FF03-5D3D-4028-A75F-3B0EA75FAB49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F71FF03-5D3D-4028-A75F-3B0EA75FAB49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Order5" sheetId="5" r:id="rId1"/>
-    <sheet name="Order50" sheetId="4" r:id="rId2"/>
-    <sheet name="O100" sheetId="8" r:id="rId3"/>
-    <sheet name="Order500" sheetId="6" r:id="rId4"/>
-    <sheet name="Order1000" sheetId="1" r:id="rId5"/>
+    <sheet name="Summary" sheetId="9" r:id="rId1"/>
+    <sheet name="Order5" sheetId="5" r:id="rId2"/>
+    <sheet name="Order50" sheetId="4" r:id="rId3"/>
+    <sheet name="O100" sheetId="8" r:id="rId4"/>
+    <sheet name="Order500" sheetId="6" r:id="rId5"/>
+    <sheet name="Order1000" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Avg Turnover</t>
   </si>
@@ -93,14 +94,18 @@
   <si>
     <t>2_12</t>
   </si>
+  <si>
+    <t>Orders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -151,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +176,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6435,6 +6454,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486907F-42DD-4704-B63C-1697C9596637}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="11.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Order5!J2</f>
+        <v>102.14406495876401</v>
+      </c>
+      <c r="C2" s="10">
+        <f>Order5!K2</f>
+        <v>102.15129874874501</v>
+      </c>
+      <c r="D2" s="10">
+        <f>Order5!L2</f>
+        <v>130.122852719858</v>
+      </c>
+      <c r="E2" s="10">
+        <f>Order5!M2</f>
+        <v>389.55200000000002</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10">
+        <f>Order5!J4</f>
+        <v>103.52959447139</v>
+      </c>
+      <c r="K2" s="10">
+        <f>Order5!K4</f>
+        <v>103.53669777952101</v>
+      </c>
+      <c r="L2" s="10">
+        <f>Order5!L4</f>
+        <v>152.57465529237001</v>
+      </c>
+      <c r="M2" s="10">
+        <f>Order5!M4</f>
+        <v>386.03733333333298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>50</v>
+      </c>
+      <c r="B3" s="10">
+        <f>Order50!J3</f>
+        <v>387.90506742431398</v>
+      </c>
+      <c r="C3" s="10">
+        <f>Order50!K3</f>
+        <v>450.24626642487198</v>
+      </c>
+      <c r="D3" s="10">
+        <f>Order50!L3</f>
+        <v>5005.7369314388498</v>
+      </c>
+      <c r="E3" s="10">
+        <f>Order50!M3</f>
+        <v>1115.213</v>
+      </c>
+      <c r="I3" s="9">
+        <v>50</v>
+      </c>
+      <c r="J3" s="10">
+        <f>Order50!J4</f>
+        <v>344.98943645806401</v>
+      </c>
+      <c r="K3" s="10">
+        <f>Order50!K4</f>
+        <v>386.55319749039398</v>
+      </c>
+      <c r="L3" s="10">
+        <f>Order50!L4</f>
+        <v>5387.1470809604198</v>
+      </c>
+      <c r="M3" s="10">
+        <f>Order50!M4</f>
+        <v>997.67333333333295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>100</v>
+      </c>
+      <c r="B4" s="10">
+        <f>'O100'!J2</f>
+        <v>464.44166082704402</v>
+      </c>
+      <c r="C4" s="10">
+        <f>'O100'!K2</f>
+        <v>1002.40612775203</v>
+      </c>
+      <c r="D4" s="10">
+        <f>'O100'!L2</f>
+        <v>4738.0259025026899</v>
+      </c>
+      <c r="E4" s="10">
+        <f>'O100'!M2</f>
+        <v>2155.9059999999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>100</v>
+      </c>
+      <c r="J4" s="10">
+        <f>'O100'!J4</f>
+        <v>424.773422983979</v>
+      </c>
+      <c r="K4" s="10">
+        <f>'O100'!K4</f>
+        <v>816.13841285992805</v>
+      </c>
+      <c r="L4" s="10">
+        <f>'O100'!L4</f>
+        <v>10463.809264382</v>
+      </c>
+      <c r="M4" s="10">
+        <f>'O100'!M4</f>
+        <v>1814.424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>500</v>
+      </c>
+      <c r="B5" s="12">
+        <f>Order500!J2</f>
+        <v>470.73223518927398</v>
+      </c>
+      <c r="C5" s="12">
+        <f>Order500!K2</f>
+        <v>4931.6549184465503</v>
+      </c>
+      <c r="D5" s="12">
+        <f>Order500!L2</f>
+        <v>23562.083803494999</v>
+      </c>
+      <c r="E5" s="12">
+        <f>Order500!M2</f>
+        <v>10002.672</v>
+      </c>
+      <c r="I5" s="11">
+        <v>500</v>
+      </c>
+      <c r="J5" s="12">
+        <f>Order500!J4</f>
+        <v>443.45192847523299</v>
+      </c>
+      <c r="K5" s="12">
+        <f>Order500!K4</f>
+        <v>4120.1156097203102</v>
+      </c>
+      <c r="L5" s="12">
+        <f>Order500!L4</f>
+        <v>52407.806751997101</v>
+      </c>
+      <c r="M5" s="12">
+        <f>Order500!M4</f>
+        <v>8416.5493333333307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="12">
+        <f>Order1000!J2</f>
+        <v>477.44988319999999</v>
+      </c>
+      <c r="C6" s="12">
+        <f>Order1000!K2</f>
+        <v>9957.06711</v>
+      </c>
+      <c r="D6" s="12">
+        <f>Order1000!L2</f>
+        <v>46967.112979999998</v>
+      </c>
+      <c r="E6" s="12">
+        <f>Order1000!M2</f>
+        <v>20133.052</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="12">
+        <f>Order1000!J4</f>
+        <v>447.59424999999999</v>
+      </c>
+      <c r="K6" s="12">
+        <f>Order1000!K4</f>
+        <v>8299.2860689999998</v>
+      </c>
+      <c r="L6" s="12">
+        <f>Order1000!L4</f>
+        <v>104757.0197</v>
+      </c>
+      <c r="M6" s="12">
+        <f>Order1000!M4</f>
+        <v>16834.124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <f>Order5!J3</f>
+        <v>103.77039025609299</v>
+      </c>
+      <c r="C11" s="10">
+        <f>Order5!K3</f>
+        <v>103.779913246809</v>
+      </c>
+      <c r="D11" s="10">
+        <f>Order5!L3</f>
+        <v>145.16885078521099</v>
+      </c>
+      <c r="E11" s="10">
+        <f>Order5!M3</f>
+        <v>387.55200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10">
+        <f>Order50!J3</f>
+        <v>387.90506742431398</v>
+      </c>
+      <c r="C12" s="10">
+        <f>Order50!K3</f>
+        <v>450.24626642487198</v>
+      </c>
+      <c r="D12" s="10">
+        <f>Order50!L3</f>
+        <v>5005.7369314388498</v>
+      </c>
+      <c r="E12" s="10">
+        <f>Order50!M3</f>
+        <v>1115.213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>100</v>
+      </c>
+      <c r="B13" s="10">
+        <f>'O100'!J3</f>
+        <v>440.595394885958</v>
+      </c>
+      <c r="C13" s="10">
+        <f>'O100'!K3</f>
+        <v>939.98795326333004</v>
+      </c>
+      <c r="D13" s="10">
+        <f>'O100'!L3</f>
+        <v>9543.4407800732097</v>
+      </c>
+      <c r="E13" s="10">
+        <f>'O100'!M3</f>
+        <v>2048.9369999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>500</v>
+      </c>
+      <c r="B14" s="12">
+        <f>Order500!J3</f>
+        <v>446.82599594917599</v>
+      </c>
+      <c r="C14" s="12">
+        <f>Order500!K3</f>
+        <v>4677.4754425664696</v>
+      </c>
+      <c r="D14" s="12">
+        <f>Order500!L3</f>
+        <v>47038.1714881597</v>
+      </c>
+      <c r="E14" s="12">
+        <f>Order500!M3</f>
+        <v>9486.0379999999896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="12">
+        <f>Order1000!J3</f>
+        <v>451.53338309999998</v>
+      </c>
+      <c r="C15" s="12">
+        <f>Order1000!K3</f>
+        <v>9406.1759789999996</v>
+      </c>
+      <c r="D15" s="12">
+        <f>Order1000!L3</f>
+        <v>93860.193369999994</v>
+      </c>
+      <c r="E15" s="12">
+        <f>Order1000!M3</f>
+        <v>19028.073</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B86E219-AD03-483F-882B-0DA456A7C5AF}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -7006,7 +7476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750783EA-E8ED-404B-A3EF-92CBA14F4A7F}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -7542,7 +8012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E0593-E34C-4F8A-B96C-2C32E678FE2E}">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -8053,7 +8523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C421C0C8-C45A-4263-B725-137251496AC6}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -8587,11 +9057,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9BD7B6-8B3E-4B31-9804-51106A7558B9}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E26"/>
     </sheetView>
   </sheetViews>
